--- a/biology/Médecine/Opisthotonos/Opisthotonos.xlsx
+++ b/biology/Médecine/Opisthotonos/Opisthotonos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'opisthotonos (en grec ancien : ὀπισθότονος, de opistho, vers l'arrière et tonos, tension) est une contracture généralisée prédominant sur les muscles extenseurs, de sorte que le corps est incurvé en arrière et les membres sont en extension. Il s'agit de l'un des signes classiques d'une atteinte par le tétanos, mais de nombreuses autres affections peuvent en être l'origine.
 Chez l'animal de laboratoire, cette posture peut être reproduite expérimentalement par section du mésencéphale. C'est la décérébration. Alors que lors d'une décortication, on observe une flexion.
@@ -516,7 +528,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tétanos
 Troubles neurologiques (engendrés par un traumatisme, une hémorragie cérébrale, une tumeur, etc.), décérébration
@@ -533,7 +547,7 @@
 Nouveau-né né par voie basse en présentation de la face
 Syndrome malin des neuroleptiques
 Engagement des amygdales cérébelleuses = des crises toniques postérieures de Jackson
-Intoxication aiguë aux cyanhydriques[1]
+Intoxication aiguë aux cyanhydriques
 Crise somatoforme</t>
         </is>
       </c>
